--- a/results/21_3_8 Experiment - Instance Based Sweeping/c1_s2_1_per_layer_fgsm.xlsx
+++ b/results/21_3_8 Experiment - Instance Based Sweeping/c1_s2_1_per_layer_fgsm.xlsx
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7777500152587891</v>
+        <v>0.8027499914169312</v>
       </c>
       <c r="C2">
-        <v>0.6842500567436218</v>
+        <v>0.6780000925064087</v>
       </c>
       <c r="D2">
-        <v>0.4517500400543213</v>
+        <v>0.4382500350475311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8412500619888306</v>
+        <v>0.8540000319480896</v>
       </c>
       <c r="C3">
-        <v>0.8090000152587891</v>
+        <v>0.8087500333786011</v>
       </c>
       <c r="D3">
-        <v>0.7230000495910645</v>
+        <v>0.7212499976158142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +469,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7765783071517944</v>
+        <v>0.7913309335708618</v>
       </c>
       <c r="C4">
-        <v>0.6944055557250977</v>
+        <v>0.8316702246665955</v>
       </c>
       <c r="D4">
-        <v>0.454591304063797</v>
+        <v>0.3585298657417297</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +483,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8436951637268066</v>
+        <v>0.8216931223869324</v>
       </c>
       <c r="C5">
-        <v>0.8164519071578979</v>
+        <v>0.8605567216873169</v>
       </c>
       <c r="D5">
-        <v>0.7228208780288696</v>
+        <v>0.6356503963470459</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,10 +497,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7654778957366943</v>
+        <v>0.8035541772842407</v>
       </c>
       <c r="C6">
-        <v>0.6667486429214478</v>
+        <v>0.675298810005188</v>
+      </c>
+      <c r="D6">
+        <v>0.4656227827072144</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,10 +511,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7969110012054443</v>
+        <v>0.8587315082550049</v>
       </c>
       <c r="C7">
-        <v>0.7868850231170654</v>
+        <v>0.8079832792282104</v>
+      </c>
+      <c r="D7">
+        <v>0.7507182359695435</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +525,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4340000152587891</v>
+        <v>0.8720000982284546</v>
       </c>
       <c r="C8">
-        <v>0.5195000171661377</v>
+        <v>0.9665000438690186</v>
       </c>
       <c r="D8">
-        <v>0.5125000476837158</v>
+        <v>0.8567500114440918</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +539,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.07800000905990601</v>
+        <v>0.874750018119812</v>
       </c>
       <c r="C9">
-        <v>0.2882499992847443</v>
+        <v>0.9662500619888306</v>
       </c>
       <c r="D9">
-        <v>0.02325000055134296</v>
+        <v>0.7445000410079956</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,10 +553,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8129571676254272</v>
+        <v>0.8234329223632812</v>
       </c>
       <c r="C10">
-        <v>0.5812627077102661</v>
+        <v>0.5971059799194336</v>
+      </c>
+      <c r="D10">
+        <v>0.4986208081245422</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +567,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8245822191238403</v>
-      </c>
-      <c r="C11">
-        <v>0.6018729209899902</v>
-      </c>
-      <c r="D11">
-        <v>0.5096187591552734</v>
+        <v>0.8581515550613403</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -572,10 +575,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8129571676254272</v>
+        <v>0.8234329223632812</v>
       </c>
       <c r="C12">
-        <v>0.5812627077102661</v>
+        <v>0.5971059799194336</v>
+      </c>
+      <c r="D12">
+        <v>0.4986208081245422</v>
       </c>
     </row>
   </sheetData>
